--- a/documents/throughput comparison.xlsx
+++ b/documents/throughput comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/949f3cfe1542cc21/文档/GitHub/MLLM/experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/949f3cfe1542cc21/文档/GitHub/Large-Multimodal-Model/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{B002AE3E-12F2-4C5A-BA58-30FEED05FB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB181213-81F0-4957-8A13-FFFBC6785BB2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F680B0B-8442-48EC-B7C5-713DE4DA146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19320" yWindow="0" windowWidth="19080" windowHeight="20970" xr2:uid="{58EFA19F-308C-40EC-A9CD-3EA6AA82CD5F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{58EFA19F-308C-40EC-A9CD-3EA6AA82CD5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Question</t>
   </si>
@@ -110,15 +110,6 @@
     <t>23.3s</t>
   </si>
   <si>
-    <t>describe this image</t>
-  </si>
-  <si>
-    <t>126.6s</t>
-  </si>
-  <si>
-    <t>11.0s</t>
-  </si>
-  <si>
     <t>5.5s</t>
   </si>
   <si>
@@ -201,534 +192,6 @@
       <t>",
   "total_amount": "$88.06"
 }</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{\n  "company_name": "EG Fuelco (Australia) Limited",\n 
- "address": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>91790 Belconnen, PH: 02 8073 3987,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 4 Luxton Street",\n 
- "phone_number": "02 8073 3987",\n  
-"date": "02/06/24",\n  
-"ABN": "39 627 348 465",\n  
-"total_amount": "$88.06"\n}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The image displays two receipts from different stores: Target and Bunnings Warehouse.\n\n
-### Target Receipt:\n
-- **Store:** Target\n
-- **Location:** Belconnen, ACT, Australia\n
-- **Date and Time:** 04/05/24 at 01:11 PM\n
-- **Items Purchased:**\n 
-- 67570744 IMPulse: 4.00\n  
-- 68764944 STAR GIFT BA: 10.50\n  
-- 68765383 BLUE GIFT BA: 2.25\n
-- **Total:** 16.75 (GST included)\n
-- **Payment Method:** Mastercard\n
-- **Transaction Details:**\n  
-- EFTPOS: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6234 0500 5055 1112</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">\n  
-- Flybuys Card: 6008 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7553</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 6627\n\n
-### Bunnings Warehouse Receipt:\n
-- **Store:** Bunnings Warehouse\n
-- **Location:** Canberra Airport WH\n
-- **Date and Time:** 19/01/2024 at </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:57:31 PM\n
-- **Items Purchased:**\n  
-- 3181080 GAS EXCHANGE: $31.50\n  
-- 127 755171 GENERATOR: $32.98\n  
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">9317812 29'6 GALLON: $150.00\n </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-- 9313034 15000W TAP ADAPTER: $1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.98\n  
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9313086 656357</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PLANT-PETUNIA: $21.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0\n  
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9313280 10070</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WHITE: $7.99\n  
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9313280 15870</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: $5.98\n  
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9313280 12800</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> GUINA-IMPERATORS: $5.98\n  
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9313280 15300</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The image is a scanned receipt from Target, showing a tax invoice for a purchase made at Bunnings Warehouse. The receipt is dated April 15, 2024, and includes the following details:
-**Store Information:**- 
-Target: target.com.au- 
-Belconnen- 
-Address: 02 6256 4000, ABN 75 004 250 944- 
-Tax Invoice: 04/15/24 01:11PM
-**Bunnings Warehouse:**- 
-Canberra Airport- 
-Address: ABN 26 008 672 179, Phone: 02 6239 3300- 
-Date: Fri 19/01/2024 02:57:31 PM- 
-Nursery Hut R19
-**Items Purchased:**
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1. **Purple Impulse:** $4.00
-2. **Star Gift Bag:** $10.50
-3. **Blue Gift Bag:** $2.25
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">4. **Gas Exchange:** $31.50
-5. **8.5KG Exchange Only:** $32.98
-6. **12M Grapery Brass:** $13.98
-7. **12M BSP Grip Lock:** $21.60
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8. **9.5KG Exchange Only:** $10.90</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9. **Mastercard Purchase:** $16.49</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-10. **Bench-New:** $7.99
-11. **125mm Grp-New:** $5.98
-12. **125mm Colourbloom Mix:** $5.98
-13. **125mm Squatt Assorted:** $4.98
-14. **0Z Potted Colour:** $2.49
-15. **105mm Assorted:** $2.00
-**Total Purchase Amount:** $127.19
-**Payment Method:**- 
-Flybuys Card: $127.19
-**Notes:**- 
-Target has a 60-day return policy.- 
-OnePass Membership benefits include 5x Flybuys in-store, express click and collect, free online delivery, etc.- 
-Instructions to visit www.target.com.au/onepass for more information.- 
-Instructions to keep the tax invoice/receipt as proof of purchase.
-**Barcode and Receipt Number:** 15123 02840 06260 20240 50413 11526</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This image shows two separate tax invoices from different stores. 
-1. **Left Invoice (Target)**
-   - Store: Target
-   - Website: target.com.au
-   - Location: Belconnen
-   - Date: 04/05/24
-   - Time: 01:11 PM
-   - Items:
-     - 6757044 Impulse: 4.00
-     - Otv 2 2.00
-     - 6867494 STAR GIFT BA: 10.50
-     - 6867553 BLUE GIFT BA: 2.25
-   - Total: 16.75
-   - Payment Method: EFTPOS
-   - Payment Details:
-     - Card Type: Mastercard
-     - Card Number: [Redacted]
-     - Expiry Date: [Redacted]
-     - Purchase Amount: 16.75
-     - Approval Number: [Redacted]
-     - No PIN or Signature Required
-   - EFTPOS Tender: 16.75
-   - GST Included in Total: 1.52
-   - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Total: 18.27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   - Flybuys Card: 6827
-   - Additional Information: Target has a 60-day return policy. For more information, visit www.target.com.au.
-2. **Right Invoice (Bunnings Warehouse)**
-   - Store: Bunnings Warehouse
-   - Location: Canberra Airport
-   - Date: Fri 19/01/2024
-   - Time: 02:57:31 PM
-   - Items:
-     - 318010 Gas Exchange: $31.50
-     - 8.5KG Exchange Only: $32.98
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     - 12M 715167: $16.49</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     - 931720182016 Spade Plant Brass: $13.98
-     - 150mm HSS Spade Brass: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$21.60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     - 2 x 10.90
-     - 9313605625 Plant-Petunia: $7.99
-     - 180mm White: $5.98
-     - 125mm Guineas Impatiens: $5.98
-     - 3314400300 Geranium: $5.98
-     - 125mm Colourbloom Mix: $5.98
-     - 125mm Squatt Assorted: $4.98
-     - 0 x 2.49
-     - 0 x 2.00
-   - Subtotal: $127.19
-   - GST Included in Total: $11.56
-   - Total: $127.19
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Flybuys Card: 6827</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   - Additional Information: Bunnings Warehouse offers a 60-day return policy. For more information, visit www.bunnings.com.au.
-Both invoices include a note about the Flybuys Card, which offers 5x Flybuys in-store, express click and collect, free online delivery, and more.</t>
     </r>
   </si>
   <si>
@@ -1032,14 +495,12 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">This image shows two receipts from different stores.
-1. **Target Receipt (Left Side)**
-   - **Store Information:**
-     - Store: Target
-     - Website: target.com.au
-     - Address: Belconnen
-     - Phone: (02) 6256 4000
-     - ABN: </t>
+      <t>{
+"company_name": "EG Fuelco (Australia) Limited",
+"address": "91790 Belconnen, Ph. 02 8073 3987",    
+"phone_number": "02 8073 3987",
+ "date": "02/06/24",
+"ABN": "</t>
     </r>
     <r>
       <rPr>
@@ -1049,7 +510,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>75 004 004 494</t>
+      <t>39 1627248645</t>
     </r>
     <r>
       <rPr>
@@ -1059,17 +520,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-     - Tax Invoice
-   - **Transaction Date and Time:** 04/05/24 at 01:11 PM
-   - **Items Purchased:**
-     - 67570744 IMPULSE: 4.00
-     - 68764944 STAR GIFT BA: 10.50
-     - 68765383 BLUE GIFT BA: 2.25
-     - Total: 16.75
-   - **Payment Method:**
-     - EFTPOS
-     - Flybuys Card: </t>
+      <t>",    
+"total_amount": "$88.06"  
+}
+{\n   
+ "company_name": "Costco Wholesale Australia",
+"address": "39-41 Mustang Ave, Canberra Airport ACT 2609",  
+"phone_number": "</t>
     </r>
     <r>
       <rPr>
@@ -1079,7 +536,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6008</t>
+      <t>(02) 6245 7599</t>
     </r>
     <r>
       <rPr>
@@ -1089,8 +546,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-  </t>
+      <t>",
+"date": "</t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +557,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - **Total Amount:** $127.19</t>
+      <t>02/06/24</t>
     </r>
     <r>
       <rPr>
@@ -1110,8 +567,82 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-  </t>
+      <t>",
+"ABN": "57 104 012 893",    
+"total_amount": "$58.88"
+}\n}</t>
+    </r>
+  </si>
+  <si>
+    <t>9.3s</t>
+  </si>
+  <si>
+    <t>there are two receipts on this image. Are these two receipts relevant to a claim about car expense?</t>
+  </si>
+  <si>
+    <t>there are two receipts on this image. read the text and return information in JSON format. I need company name, address, phone number, date, ABN, and total amount</t>
+  </si>
+  <si>
+    <t>8.1s</t>
+  </si>
+  <si>
+    <t>5.2s</t>
+  </si>
+  <si>
+    <t>{
+"company_name": "Costco Wholesale Australia",
+"address": "39-41 Mustang Ave, Canberra Airport, Canberra 2609",
+ "phone_number": "(02) 6246 7500",
+"date": "08-JUN-2024",
+"ABN": "57 104 012 893",  
+"total_amount": "$56.88"
+}</t>
+  </si>
+  <si>
+    <t>The provided receipt from Costco Wholesale Australia is likely not directly relevant to a claim about car expenses, as it appears to be a purchase receipt for a specific transaction.\n\n
+The receipt details are as follows:\n\n- 
+**Item purchased:** 132L 230L @ $1.827/L = $8.88\n- 
+**Total (incl. GST):** $58.86\n- 
+**Tax amount:** $5.35\n- 
+**Transaction ID:** 87590\n- 
+**Date:** 08/06/2024\n- 
+**Time:** 13:23:00\n\n
+The receipt does not provide any information about car expenses, such as fuel purchase for a vehicle, maintenance costs, or other related expenses.\n\n
+For a claim about car expenses, you would typically need documentation that directly supports the expenses related to the car, such as fuel receipts, maintenance invoices, or other relevant financial records.\n\n
+In summary, while the receipt is a valid financial document, it does not directly support a claim about car expenses.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To determine if these two receipts are relevant to a claim about car expenses, let's analyze each receipt step-by-step:\n\n
+### Receipt 1 (EG Fuelco (Australia) Limited)\n- 
+**Purchase Date:** 02/06/24\n- 
+**Time:** 09:09\n- 
+**Items Purchased:**\n  
+- Unleaded fuel: 44.05L at $2.039/L, totaling $88.82\n  
+- Woolworths Fuel eVoucher: -1.76\n- 
+**Total Amount:** $88.06\n- 
+**Payment Method:** EFT\n- **Card Information:**\n  - Mastercard: 410610******7565\n 
+ - Transaction ID: 88887\n 
+ - Approval Code: 0005903\n- 
+**Other Information:**\n  
+- Member ID: 79015479000 (2)\n  
+- Store: 91790 Belconnen\n  
+- Phone: 02 8073 3987\n  
+- Address: 4 Luxon Street\n 
+ - ABN: 39 6627248645\n  
+- TAX INVOICE: ABN 39 6627248645\n\n
+### Receipt 2 (Costco Wholesale Australia)\n- 
+**Purchase Date:** 02/06/24\n- 
+**Time:** 19:22:45\n- **Items Purchased:**\n  
+- Diesel: 32.230L at $1.827/L, totaling $58.88\n- 
+**Total Amount:** $58.88\n- 
+**Payment Method:** Mastercard\n  
+- Card: 410610******7565\n  
+- Terminal ID: 62905\n  
+- Approval Code: 02219477109\n  
+- ARQC: 228299473477F7F98\n  
+- Auth No: 88139\n  - PSN: 231
+</t>
     </r>
     <r>
       <rPr>
@@ -1121,11 +652,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - **GST Included:** $15.15
-   - **Card Used:** 552530-430
-   - **Credit:** $0.00
-   - **Change:** $0.00
-</t>
+      <t>generate_token_len=513</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{\n  
+"company_name": "EG Fuelco (Australia) Limited",\n 
+ "address": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">91790 Belconnen, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PH: 02 8073 3987,</t>
     </r>
     <r>
       <rPr>
@@ -1135,65 +688,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">   - **Barcode and Transaction Number:** 15123 02840 06260 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20420</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 50413 11526
-   - **Additional Information:**
-     - Target has a 60-day return policy.
-     - Extended returns with a OnePass Membership.
-     - Website: target.com.au
-     - Please keep your tax invoice/receipt as proof of purchase.
-2. **Bunnings Warehouse Receipt (Right Side)**
-   - **Store Information:**
-     - Store: Bunnings Warehouse
-     - Address: CANBERRA AIRPORT WH
-     - Phone: (02) 6234 9300
-     - ABN: 26 008 672 179
-     - Tax Invoice
-   - **Transaction Date and Time:** Fri 19/01/2024 at 02:57:31 PM
-   - **Items Purchased:**
-     - 3181080 GAS EXCHANGE: $31.50
-     - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>93171808 8.5KG EXCHANGE ONLY:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> $32.98
-     - 93171808 16KG EXCHANGE ONLY: $32.98
-     - 93</t>
+      <t xml:space="preserve"> 4 Luxton Street",\n 
+ "phone_number": "02 8073 3987",\n  
+"date": "02/06/24",\n  
+"ABN": "39 627 348 465",\n  
+"total_amount": "$88.06"\n
+}</t>
     </r>
   </si>
 </sst>
@@ -1201,7 +701,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1212,6 +712,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1261,10 +767,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1438,22 +944,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2006600</xdr:rowOff>
+      <xdr:colOff>82551</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>310830</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>5175250</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3224060</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>977900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5FA797-F6F1-6371-B306-21F899A9D6AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F085149-4094-03CF-01BF-D6B1B4A8E533}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,8 +981,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13836650"/>
-          <a:ext cx="3676330" cy="5194300"/>
+          <a:off x="82551" y="19018250"/>
+          <a:ext cx="3141509" cy="6178550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3276600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1447800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E7EA8F-CF1A-9D51-761D-5D1A41DA7D98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27387550"/>
+          <a:ext cx="3276600" cy="4946650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1787,48 +1343,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE05BB72-CDC6-4D6A-8768-04BF3409CA66}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="48.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="51.7265625" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="48.7265625" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="48.19921875" customWidth="1"/>
+    <col min="2" max="2" width="29.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="51.73046875" customWidth="1"/>
+    <col min="5" max="5" width="6.9296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="48.73046875" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" style="4"/>
     <col min="8" max="8" width="58" style="1" customWidth="1"/>
-    <col min="10" max="10" width="64.81640625" customWidth="1"/>
+    <col min="10" max="10" width="64.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="8"/>
+      <c r="C1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="9"/>
       <c r="E1" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="7"/>
-      <c r="B2" s="9"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1851,7 +1407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -1869,19 +1425,19 @@
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -1899,16 +1455,16 @@
         <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -1926,19 +1482,19 @@
         <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -1947,28 +1503,28 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="142.5" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1976,313 +1532,325 @@
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8">
-        <v>526.6</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="242.25" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="270.75" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="114" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="1"/>

--- a/documents/throughput comparison.xlsx
+++ b/documents/throughput comparison.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/949f3cfe1542cc21/文档/GitHub/Large-Multimodal-Model/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F680B0B-8442-48EC-B7C5-713DE4DA146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{2F680B0B-8442-48EC-B7C5-713DE4DA146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2B7C4A6-4EEA-4197-98EB-07DA594AF297}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{58EFA19F-308C-40EC-A9CD-3EA6AA82CD5F}"/>
+    <workbookView xWindow="16800" yWindow="0" windowWidth="21560" windowHeight="20970" xr2:uid="{58EFA19F-308C-40EC-A9CD-3EA6AA82CD5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>Question</t>
   </si>
@@ -693,6 +693,333 @@
 "date": "02/06/24",\n  
 "ABN": "39 627 348 465",\n  
 "total_amount": "$88.06"\n
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>To determine if the two receipts are relevant to a claim about car expenses, let's analyze the details on each receipt carefully.\n\n### Receipt on the Left:\n1. **Store/Company**: EG Fuel (Australia) Limited\n2. **Address**: 91790 Belconnen, PH 02 8379 3987, 4 Luxton Street\n3. **Transaction**:\n   - **Date**: 02/06/2024\n   - **Time**: 13:22:45\n   - **Amount**: $88.06\n   - **Items**:\n     - Fuel (Woolworths Fuel eVoucher) - $88.06\n     - Subtotal: $88.06\n     - GST Inclusive: $88.06\n     - Total: $88.06\n\n### Receipt on the Right:\n1. **Store/Company**: Costco Wholesale Australia\n2. **Address**: 39-41 Mustang Ave, Canberra Airport ACT 2600\n3. **Transaction**:\n   - **Date**: 02/06/2024\n   - **Time**: 13:22:46\n   - **Amount**: $58.88\n   - **Items**:\n     - Fuel (13ULP) - $58.88\n     - Subtotal: $58.88\n     - GST Inclusive: $58.88\n     - Total: $58.88\n\n### Analysis:\n1. **Common Date and Time**: Both receipts are dated and time-stamped very close to each other (02/06/2024, 13:22:45 vs. 13:22:46), suggesting they were likely part of the same transaction or close to it.\n2. **Purpose**: Both receipts are for fuel purchases, indicating that they are likely related to car expenses.\n3. **Location**: One receipt is from a local fuel station (EG Fuel) and the other from a supermarket (Costco), both located in Canberra, Australia.\n4. **Amounts**: The receipts total $88.06 and $58.88 respectively, which are close to each other and reasonable for car expenses.\n\n### Conclusion:\nBased on the details provided, both receipts are indeed relevant to a claim about car expenses. They both show purchases of fuel, which are directly related to car expenses. The receipts are also close in time and location</t>
+  </si>
+  <si>
+    <r>
+      <t>receipt1:
+{\n    
+"company_name": "EG Fuel (Australia) Limited",\n
+  "address": "4 Luxton Street",\n    
+"phone_number": "02 8739 3887",\n    
+"date": "29/06/2024",\n    
+"ABN": "3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6 23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7 348 645",\n    
+"total_amount": "$88.06"\n  
+},\n  
+"receipt2": {\n    
+"company_name": "Costco Wholesale Australia",\n    
+"address": "39-41 Mustang Ave, Canberra Airport ACT",\n    "phone_number": "(02) 6246 7500",\n    
+"date": "29/06/2024",\n    
+"ABN": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 104 012 893",\n    
+"total_amount": "$58.88"\n  
+}\n}</t>
+    </r>
+  </si>
+  <si>
+    <t>10.9s</t>
+  </si>
+  <si>
+    <t>4.4s</t>
+  </si>
+  <si>
+    <t>1.9s</t>
+  </si>
+  <si>
+    <t>No, this receipt is not relevant to a claim about car expense. It is a receipt from Costco Wholesale Australia for a purchase of 32.230L of a product at $1.827/L, totaling $58.88, with GST included.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{\n  
+"company_name": "Costco Wholesale Australia",\n  
+"address": "39-41 Mustang Ave, Canberra Airport ACT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",\n  
+"phone_number": "(02) 6246 7500",\n  
+"date": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-JUN-2024",\n  
+"ABN": "57 104 012 893",\n  
+"total_amount": "$58.88"\n
+}\n</t>
+    </r>
+  </si>
+  <si>
+    <t>2.6s</t>
+  </si>
+  <si>
+    <t>74.2s</t>
+  </si>
+  <si>
+    <t>The receipt provided is from Costco Wholesale Australia and includes a purchase of 32.230L of a product priced at $1.827/L. The total cost, including GST, is $58.88. The receipt also includes a tax amount of $5.35. 
+To determine if this receipt is relevant to a claim about car expense, we need to consider the following points:
+1. **Product Purchased**: The receipt shows the purchase of a product priced at $1.827/L. Without additional context, it is unclear what this product is. If it is a car-related product (e.g., fuel, car wash, or maintenance supplies), it could be relevant to a car expense claim. However, if it is unrelated to cars (e.g., groceries or household items), it would not be relevant.
+2. **Purpose of the Purchase**: The receipt does not provide information about the purpose of the purchase. If the purchase was made for personal use and not for business or car-related expenses, it would not be relevant to a car expense claim.
+3. **Relevance to Claim**: If the purchase was made for business purposes (e.g., for a company car or for business-related travel), it could be relevant to a car expense claim. However, if it was for personal use, it would not be relevant.
+4. **Documentation**: Receipts are often used as documentation to support claims. If the purchase was made for business purposes, having the receipt can help substantiate the claim. However, if the purchase was for personal use, the receipt would not be relevant.
+In summary, the receipt is relevant to a claim about car expense if the product purchased was related to car maintenance or use. If the purchase was for personal use or unrelated to cars, the receipt would not be relevant.</t>
+  </si>
+  <si>
+    <t>there are two receipts on this image. Are these two receipts relevant to a claim about car expense?
+Assistant: Yes, the two receipts in the image are relevant to a claim about car expenses. Here's a detailed analysis:
+1. **Receipt from EG Fuel (Australia) Limited:**
+   - **Details:**
+     - Fuel type: Unleaded (44.05L)
+     - Price per liter: $2.039/L
+     - Total cost: $89.82
+   - **Relevance:**
+     - This receipt is for the purchase of fuel, which is a common expense when using a car. The amount spent on fuel can be included in a claim for car expenses.
+2. **Receipt from Costco Wholesale Australia:**
+   - **Details:**
+     - Items purchased: 32.239L of fuel at $1.827/L
+     - Total cost: $58.88
+   - **Relevance:**
+     - This receipt is also for the purchase of fuel. The amount spent on fuel can be included in a claim for car expenses.
+**Chain of Thought:**
+- Both receipts are for the purchase of fuel, which is a necessary expense for operating a car.
+- The receipts provide specific details about the type and amount of fuel purchased, as well as the cost per liter.
+- Including these receipts in a claim for car expenses would provide evidence of the fuel costs incurred, which is a legitimate and relevant expense.
+In summary, both receipts are relevant to a claim about car expenses, as they document the purchase of fuel, which is a necessary and common expense associated with car usage.</t>
+  </si>
+  <si>
+    <t>62.0s</t>
+  </si>
+  <si>
+    <t>36.1s</t>
+  </si>
+  <si>
+    <t>18.9s</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "company_name": "Costco Wholesale Australia",
+  "address": "39-41 Mustang Ave, Canberra Airport ACT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "phone_number": "(02) 6246 7500",
+  "date": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-JUN-2024",
+  "ABN": "57 104 012 893",
+  "total_amount": "AUD 58.88"
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "receipts": [
+    {
+      "company_name": "EG Fuel (Australia) Limited",
+      "address": "91790 Belconnen PH 02 8073 3987 4 Luxton Street",
+      "phone_number": "",
+      "date": "02/06/2024",
+      "ABN": "ABB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3962</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48645</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+      "total_amount": "88.06"
+    },
+    {
+      "company_name": "Costco Wholesale Australia",
+      "address": "39-41 Mustang Ave Canberra Airport ACT",
+      "phone_number": "(02) 6246 7500",
+      "date": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/06/2024",
+      "ABN": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 104 012 893",
+      "total_amount": "58.88"
+    }
+  ]
 }</t>
     </r>
   </si>
@@ -1001,8 +1328,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3276600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1447800</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4946650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1343,24 +1670,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE05BB72-CDC6-4D6A-8768-04BF3409CA66}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.19921875" customWidth="1"/>
-    <col min="2" max="2" width="29.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="51.73046875" customWidth="1"/>
-    <col min="5" max="5" width="6.9296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="48.73046875" customWidth="1"/>
-    <col min="7" max="7" width="8.73046875" style="4"/>
+    <col min="1" max="1" width="48.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="51.7265625" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="48.7265625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="4"/>
     <col min="8" max="8" width="58" style="1" customWidth="1"/>
-    <col min="10" max="10" width="64.796875" customWidth="1"/>
+    <col min="10" max="10" width="64.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1382,7 +1709,7 @@
       </c>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="5" t="s">
@@ -1407,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -1437,7 +1764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -1464,7 +1791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -1494,7 +1821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -1524,7 +1851,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1553,14 +1880,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1569,13 +1904,22 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1584,13 +1928,22 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G10" s="4" t="s">
         <v>54</v>
       </c>
@@ -1598,13 +1951,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="114" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G11" s="4" t="s">
         <v>55</v>
       </c>
@@ -1612,245 +1974,245 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="1"/>

--- a/documents/throughput comparison.xlsx
+++ b/documents/throughput comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/949f3cfe1542cc21/文档/GitHub/Large-Multimodal-Model/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{2F680B0B-8442-48EC-B7C5-713DE4DA146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2B7C4A6-4EEA-4197-98EB-07DA594AF297}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{2F680B0B-8442-48EC-B7C5-713DE4DA146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35B7DB57-610C-48ED-8235-AFBAA47B985D}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="21560" windowHeight="20970" xr2:uid="{58EFA19F-308C-40EC-A9CD-3EA6AA82CD5F}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{58EFA19F-308C-40EC-A9CD-3EA6AA82CD5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>Question</t>
   </si>
@@ -1021,6 +1021,134 @@
     }
   ]
 }</t>
+    </r>
+  </si>
+  <si>
+    <t>157.7s</t>
+  </si>
+  <si>
+    <t>41.0s</t>
+  </si>
+  <si>
+    <t>No, this receipt is not relevant to a claim about car expenses. The receipt is from Costco Wholesale Australia and shows the purchase of 132L of 98 RON fuel for a total of $58.88, including GST. It does not provide any information about car expenses such as maintenance, repairs, or other related costs.</t>
+  </si>
+  <si>
+    <t>72.5s</t>
+  </si>
+  <si>
+    <t>{
+  "company_name": "Costco Wholesale Australia",
+  "address": "39-41 Mustang Ave, Canberra Airport, Canberra, ACT 2609",
+  "phone_number": "(02) 6246 7500",
+  "date": "08-JUN-2024",
+  "ABN": "57 104 012 893",
+  "total_amount": "AUD$58.88"
+}</t>
+  </si>
+  <si>
+    <t>163.1s</t>
+  </si>
+  <si>
+    <t>Yes, these two receipts appear to be relevant to a claim about car expenses. Let's break down the details:
+1. **EG Fuelco (Australia) Limited Receipt:**
+   - **Purchase:** Unleaded fuel
+   - **Quantity:** 44.059 liters
+   - **Price per liter:** $2.039
+   - **Total Amount:** $88.06
+   - **Date:** 02/06/24
+   - **Time:** 09:09
+   - **Payment Method:** EFT
+2. **Costco Wholesale Australia Receipt:**
+   - **Purchase:** 32.230 liters of fuel
+   - **Price per liter:** $1.827
+   - **Total Amount:** $58.88
+   - **Date:** 09-JUN-2024
+   - **Time:** 19:22:45
+   - **Payment Method:** Mastercard
+Both receipts are for fuel purchases, which are directly related to car expenses. The receipts provide details such as the type of fuel, the quantity purchased, the price per liter, and the total amount spent. These details are essential for substantiating car-related expenses in a claim.
+In summary, these receipts are relevant to a claim about car expenses as they document fuel purchases necessary for operating a vehicle.</t>
+  </si>
+  <si>
+    <t>140.2s</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "company_name": "EG Fuelco (Australia) Limited",
+    "address": "91790 Belconnen, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ph. 02 8073 3987, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 Luxon Street",
+    "phone_number": "02 8073 3987",
+    "date": "02/06/24",
+    "ABN": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>93 6257243645</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">",
+    "total_amount": "$88.06"
+  },
+  {
+    "company_name": "Costco Wholesale Australia",
+    "address": "39-41 Mustang Ave, Canberra Airport ACT 2609",
+    "phone_number": "(02) 6247 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+    "date": "02/06/24",
+    "ABN": "57 104 012 893",
+    "total_amount": "$58.88"
+  }</t>
     </r>
   </si>
 </sst>
@@ -1221,15 +1349,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2724150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>198087</xdr:rowOff>
+      <xdr:colOff>1974850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>128237</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1258,7 +1386,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="990600" y="11830050"/>
+          <a:off x="241300" y="27870150"/>
           <a:ext cx="1733550" cy="2223737"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1271,15 +1399,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>82551</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3224060</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>977900</xdr:rowOff>
+      <xdr:colOff>3325659</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1079500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1308,7 +1436,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82551" y="19018250"/>
+          <a:off x="184150" y="18789650"/>
           <a:ext cx="3141509" cy="6178550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1322,21 +1450,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3276600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>4946650</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1079500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E7EA8F-CF1A-9D51-761D-5D1A41DA7D98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24880A71-CA07-46B0-9136-F37A842578AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1358,8 +1486,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="27387550"/>
-          <a:ext cx="3276600" cy="4946650"/>
+          <a:off x="0" y="11969750"/>
+          <a:ext cx="3276600" cy="6140450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1670,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE05BB72-CDC6-4D6A-8768-04BF3409CA66}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1787,6 +1915,9 @@
       <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
@@ -1851,127 +1982,149 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">

--- a/documents/throughput comparison.xlsx
+++ b/documents/throughput comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/949f3cfe1542cc21/文档/GitHub/Large-Multimodal-Model/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{2F680B0B-8442-48EC-B7C5-713DE4DA146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35B7DB57-610C-48ED-8235-AFBAA47B985D}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{2F680B0B-8442-48EC-B7C5-713DE4DA146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECADCC20-25F0-47A4-AB0C-F1C2963E6847}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{58EFA19F-308C-40EC-A9CD-3EA6AA82CD5F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{58EFA19F-308C-40EC-A9CD-3EA6AA82CD5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>Question</t>
   </si>
@@ -1150,6 +1150,106 @@
     "total_amount": "$58.88"
   }</t>
     </r>
+  </si>
+  <si>
+    <t>EasyOCR+Llama3 70B</t>
+  </si>
+  <si>
+    <t>{
+  "company_name": "EG Fuelco (Australia) Linited",
+  "address": "Luxton Street, BELCONNEN",
+  "phone_number": "02 8073 3987",
+  "date": "02/06/24",
+  "ABN": "39627348645",
+  "total_amount": "888.06"
+}</t>
+  </si>
+  <si>
+    <t>Based on the detected texts, it appears that this is related to a fuel receipt or an invoice for fuel purchases, which could be relevant to a claim about car expenses. The texts mention fuel-related information such as "HUNLEADED", "PUMP H4", "44. 05L", "82. 039/L", and "89. 82", which suggests that the document is related to fuel purchases.
+Additionally, the presence of texts like "TAX INVOICE", "SUBTOTAL", "TOTHL", and "TOTAL" indicates that this is an invoice or a receipt for a purchase, which could be used as evidence to support a claim about car expenses.
+However, without more context or information about the specific claim, it is difficult to determine the exact relevance of this document to the claim.</t>
+  </si>
+  <si>
+    <t>After analyzing the text within the bounding boxes, I found some relevant information that might be related to a claim about car expense:
+" Canberra" and "ACT" suggest a location in Australia.
+"Airport" and "Phone" might be related to travel expenses.
+"GST" (Goods and Services Tax) and "Tax amount" imply tax-related expenses.
+"INVOICE" and "TOTAL" suggest an invoice or receipt for a purchase or service.
+"MasterCard" and "CREDIT" might indicate payment methods.
+"Date" and "Time" could be related to a specific transaction or event.
+"Merchant ID" and "Terminal ID" might be related to a payment terminal or merchant.
+"AID" and "ARQC" could be related to payment processing or authentication.
+"PSN" might be a payment system number.
+"RRN" could be a receipt or reference number.
+"Preauth" might be related to a pre-authorization for a payment.
+"AUD 358" suggests an amount of Australian dollars.
+While there is no direct mention of "car expense," some of these keywords could be related to a claim about car-related expenses, such as fuel, maintenance, or travel expenses. However, without more context or information, it's difficult to determine the exact relevance of this data to a car expense claim.</t>
+  </si>
+  <si>
+    <t>{
+  "company": {
+    "name": "Costco",
+    "address": "Canberra, ACT 2609",
+    "phone": "(02) 6248 7500"
+  },
+  "invoice": {
+    "date": "08-JUN-2024",
+    "abn": "104 012 893",
+    "totalAmount": "AUD 358.88"
+  }
+}</t>
+  </si>
+  <si>
+    <t>After analyzing the text labels, I found that both receipts appear to be related to fuel purchases. Here are some relevant details:
+Receipt 1:
+The text "EG Fuelco (Australia) Limited" suggests that this receipt is from a fuel company.
+The presence of "ULP" (Unleaded Petrol) and "L" (liters) indicates that this receipt is for a fuel purchase.
+The text "Tax Invoice" and "GST" (Goods and Services Tax) imply that this is a legitimate receipt for a business expense.
+Receipt 2:
+The text "COSTCO" suggests that this receipt is from a wholesale warehouse club, which often sells fuel to its members.
+The presence of "HUNLEADED" and "L" (liters) again indicates that this receipt is for a fuel purchase.
+The text "Tax Invoice" and "GST" (Goods and Services Tax) imply that this is also a legitimate receipt for a business expense.
+Given that both receipts are related to fuel purchases, they could be relevant to a claim about car expenses, especially if the claimant is seeking reimbursement for fuel costs related to business use of their vehicle. However, without more context or information about the specific claim, it's difficult to say for certain whether these receipts are directly relevant.</t>
+  </si>
+  <si>
+    <t>{
+  "company_name": "EG Fuelco (Australia) Limited",
+  "address": "91790 Belconnen",
+  "phone_number": "02 8073 3987",
+  "date": "08-JUN-2024",
+  "ABN": "39627348645",
+  "total_amount": "S88.06"
+}
+{
+  "company_name": "COSTCO",
+  "address": "Luxton Street, Belconnen",
+  "phone_number": null,
+  "date": null,
+  "ABN": null,
+  "total_amount": "358, 88"
+}</t>
+  </si>
+  <si>
+    <t>After analyzing the text, I can see that it appears to be a collection of extracted text from a document, likely a scanned or photographed image of a conference program or registration form. The text includes various fields such as names, addresses, phone numbers, and titles, which are commonly found in conference registration forms.
+The presence of keywords like "ACCEPTED SYMPOSIUM", "Preliminary Program Information", "AAAS Mcetings Office", "Los Angeles", and "READ REVERSE SIDE BEFORE FLLEG OUT THIS FORH" suggests that this text is related to an academic conference.
+Therefore, I would say that this text is indeed relevant to a claim about attending an academic conference. It could potentially serve as evidence to support an individual's claim of attending a specific conference, especially if the extracted text includes their name, registration information, or other identifying details.</t>
+  </si>
+  <si>
+    <t>Based on the provided text, I was able to extract the following speaker information:
+Dr. Joree L. Yunls
+Sheldon Wolff
+Profes80r Chalzuen
+William J. Schull
+Michael
+Dr. Ratzicla Jecqbs
+Mchael 4Bendez
+Dr. Dz. Ruvend_WhLte
+Topk _ (possibly a typo or incomplete name)
+Please note that the text may contain errors or incomplete information, and some speakers might not be listed. Additionally, some of the extracted text might not be related to speaker information.</t>
+  </si>
+  <si>
+    <t>Please provide the text you want me to read
+I'll be happy to extract the information you need and return it in JSON format.</t>
   </si>
 </sst>
 </file>
@@ -1256,8 +1356,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3327400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>450850</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1555750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1307,7 +1407,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>191532</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>4933950</xdr:rowOff>
+      <xdr:rowOff>2725561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1796,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE05BB72-CDC6-4D6A-8768-04BF3409CA66}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1813,9 +1913,10 @@
     <col min="7" max="7" width="8.7265625" style="4"/>
     <col min="8" max="8" width="58" style="1" customWidth="1"/>
     <col min="10" max="10" width="64.81640625" customWidth="1"/>
+    <col min="11" max="11" width="43.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1836,8 +1937,11 @@
         <v>46</v>
       </c>
       <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="5" t="s">
@@ -1862,7 +1966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="319" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -1891,8 +1995,11 @@
       <c r="J3" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="K3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -1921,8 +2028,11 @@
       <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="K4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="261" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -1951,8 +2061,11 @@
       <c r="J5" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="K5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -1981,8 +2094,11 @@
       <c r="J6" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="K6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2010,8 +2126,11 @@
       <c r="J7" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="K7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2039,8 +2158,11 @@
       <c r="J8" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="K8" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
@@ -2068,8 +2190,11 @@
       <c r="J9" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="K9" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="304.5" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
@@ -2097,8 +2222,11 @@
       <c r="J10" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="K10" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -2126,32 +2254,35 @@
       <c r="J11" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>

--- a/documents/throughput comparison.xlsx
+++ b/documents/throughput comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/949f3cfe1542cc21/文档/GitHub/Large-Multimodal-Model/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{2F680B0B-8442-48EC-B7C5-713DE4DA146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECADCC20-25F0-47A4-AB0C-F1C2963E6847}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{2F680B0B-8442-48EC-B7C5-713DE4DA146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77296CFD-ECAF-4A4C-BFF4-FAF1E755B275}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{58EFA19F-308C-40EC-A9CD-3EA6AA82CD5F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
   <si>
     <t>Question</t>
   </si>
@@ -587,16 +587,6 @@
   </si>
   <si>
     <t>5.2s</t>
-  </si>
-  <si>
-    <t>{
-"company_name": "Costco Wholesale Australia",
-"address": "39-41 Mustang Ave, Canberra Airport, Canberra 2609",
- "phone_number": "(02) 6246 7500",
-"date": "08-JUN-2024",
-"ABN": "57 104 012 893",  
-"total_amount": "$56.88"
-}</t>
   </si>
   <si>
     <t>The provided receipt from Costco Wholesale Australia is likely not directly relevant to a claim about car expenses, as it appears to be a purchase receipt for a specific transaction.\n\n
@@ -656,47 +646,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>{\n  
-"company_name": "EG Fuelco (Australia) Limited",\n 
- "address": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">91790 Belconnen, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PH: 02 8073 3987,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 4 Luxton Street",\n 
- "phone_number": "02 8073 3987",\n  
-"date": "02/06/24",\n  
-"ABN": "39 627 348 465",\n  
-"total_amount": "$88.06"\n
-}</t>
-    </r>
-  </si>
-  <si>
     <t>To determine if the two receipts are relevant to a claim about car expenses, let's analyze the details on each receipt carefully.\n\n### Receipt on the Left:\n1. **Store/Company**: EG Fuel (Australia) Limited\n2. **Address**: 91790 Belconnen, PH 02 8379 3987, 4 Luxton Street\n3. **Transaction**:\n   - **Date**: 02/06/2024\n   - **Time**: 13:22:45\n   - **Amount**: $88.06\n   - **Items**:\n     - Fuel (Woolworths Fuel eVoucher) - $88.06\n     - Subtotal: $88.06\n     - GST Inclusive: $88.06\n     - Total: $88.06\n\n### Receipt on the Right:\n1. **Store/Company**: Costco Wholesale Australia\n2. **Address**: 39-41 Mustang Ave, Canberra Airport ACT 2600\n3. **Transaction**:\n   - **Date**: 02/06/2024\n   - **Time**: 13:22:46\n   - **Amount**: $58.88\n   - **Items**:\n     - Fuel (13ULP) - $58.88\n     - Subtotal: $58.88\n     - GST Inclusive: $58.88\n     - Total: $58.88\n\n### Analysis:\n1. **Common Date and Time**: Both receipts are dated and time-stamped very close to each other (02/06/2024, 13:22:45 vs. 13:22:46), suggesting they were likely part of the same transaction or close to it.\n2. **Purpose**: Both receipts are for fuel purchases, indicating that they are likely related to car expenses.\n3. **Location**: One receipt is from a local fuel station (EG Fuel) and the other from a supermarket (Costco), both located in Canberra, Australia.\n4. **Amounts**: The receipts total $88.06 and $58.88 respectively, which are close to each other and reasonable for car expenses.\n\n### Conclusion:\nBased on the details provided, both receipts are indeed relevant to a claim about car expenses. They both show purchases of fuel, which are directly related to car expenses. The receipts are also close in time and location</t>
   </si>
   <si>
@@ -1155,16 +1104,6 @@
     <t>EasyOCR+Llama3 70B</t>
   </si>
   <si>
-    <t>{
-  "company_name": "EG Fuelco (Australia) Linited",
-  "address": "Luxton Street, BELCONNEN",
-  "phone_number": "02 8073 3987",
-  "date": "02/06/24",
-  "ABN": "39627348645",
-  "total_amount": "888.06"
-}</t>
-  </si>
-  <si>
     <t>Based on the detected texts, it appears that this is related to a fuel receipt or an invoice for fuel purchases, which could be relevant to a claim about car expenses. The texts mention fuel-related information such as "HUNLEADED", "PUMP H4", "44. 05L", "82. 039/L", and "89. 82", which suggests that the document is related to fuel purchases.
 Additionally, the presence of texts like "TAX INVOICE", "SUBTOTAL", "TOTHL", and "TOTAL" indicates that this is an invoice or a receipt for a purchase, which could be used as evidence to support a claim about car expenses.
 However, without more context or information about the specific claim, it is difficult to determine the exact relevance of this document to the claim.</t>
@@ -1250,6 +1189,667 @@
   <si>
     <t>Please provide the text you want me to read
 I'll be happy to extract the information you need and return it in JSON format.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "company_name": "EG Fuelco (Australia) Limited",
+  "address": "91790 Belcommen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PH: 02 8073 3987</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "phone_number": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 Luxton Street</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "date": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TAX INVOICE - ABN 396627348645</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "ABN": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>396627348645</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "total_amount": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$89.82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>9.8s</t>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "company_name": "EG Fuelco (Australia) Linited",
+  "address": "Luxton Street, BELCONNEN",
+  "phone_number": "02 8073 3987",
+  "date": "02/06/24",
+  "ABN": "39627348645",
+  "total_amount": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888.06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{\n  
+"company_name": "EG Fuelco (Australia) Limited",\n 
+ "address": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">91790 Belconnen, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PH: 02 8073 3987,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4 Luxton Street",\n 
+ "phone_number": "02 8073 3987",\n  
+"date": "02/06/24",\n  
+"ABN": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>39 627 348 465</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",\n  
+"total_amount": "$88.06"\n
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "company_name": "EG Group (Australia) Limited",
+  "address": "91790 Belconnen, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PH 02 08073 93987</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "phone_number": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 Luxington Street</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "date": "02/06/24",
+  "ABN": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>39627346464</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "total_amount": "88.06"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>18.0s</t>
+  </si>
+  <si>
+    <t>InternVL2-4B (8G VRAM)</t>
+  </si>
+  <si>
+    <t>Yes, this invoice is relevant to a claim about car expenses. The document is a receipt from EG Fuelco (Australia) Limited for the purchase of fuel, specifically "Moolowwarts Fuel e-voucher." The total amount paid for the fuel is $88.06, which would be relevant information for a car expense claim.</t>
+  </si>
+  <si>
+    <t>12.5s</t>
+  </si>
+  <si>
+    <t>Yes, this document is relevant to a claim about attending an academic conference. The form is an "Accepted Symposium Preliminary Program Information" for the Annual Meeting of the American Association for Apoptosis (AAAS) in Los Angeles on May 26-31, 1985. It lists the details of the symposium, including the title, speakers, affiliations, and topics. This information is crucial for someone who might be claiming to have attended the conference, as it provides specific details about the event they are referencing.</t>
+  </si>
+  <si>
+    <t>20.9s</t>
+  </si>
+  <si>
+    <t>9.5s</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The speakers listed in the text are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(miss one)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+1. Dr. William J. Schull
+2. Dr. Jorge J. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unnis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Dr. Sheldon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wolf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Dr. Patricia Jacobs
+5. Dr. Michael A. Bender</t>
+    </r>
+  </si>
+  <si>
+    <t>No, this document is not relevant to a claim about car expenses. It is a tax invoice from Costco Wholesale Australia. The document details a transaction for goods purchased, including the total amount paid, the tax amount, and the date and time of the transaction. It also includes the member's identification number and the transaction number. The invoice is approved and includes a QR code for verification.</t>
+  </si>
+  <si>
+    <t>13.4s</t>
+  </si>
+  <si>
+    <t>{
+  "company_name": "Costco Wholesale Australia",
+  "address": "39-41 Mustard Ave, Canberra Airport ACT 2699",
+  "phone_number": "(02) 6246 7500",
+  "date": "06-JUN-2024",
+  "ABN": "57 104 012 893",
+  "total_amount": "$58.88"
+}</t>
+  </si>
+  <si>
+    <t>19.2s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, these two receipts are relevant to a claim about car expenses. Here's a detailed analysis:
+### Left Receipt: EG Fuelco (Australia) Limited
+1. **Fuel Purchase**:
+   - **Fuel Type**: Unleaded
+   - **Volume**: 44.05L
+   - **Price per Liter**: $2.039/L
+   - **Total Cost**: $89.82
+2. **Details**:
+   - **Merchant ID**: 429855621381
+   - **Terminal ID**: 56654466
+   - **Date**: 13/06/2024
+   - **Time**: 13:22:45
+   - **Stay Card**: 09446469
+   - **Mastercard**: 0988897
+   - **Credit Card**: 0755
+   - **ATM**: 00000001
+   - **AID**: 000000001010
+   - **TWR**: 000000001010
+   - **ARC**: 6290FCDFC6830
+   - **Purchase**: $88.06
+3. **Approval**:
+   - **EFT Change**: $0.00
+   - **Total**: $88.06
+### Right Receipt: Costco Wholesale Australia
+1. **Tax Invoice**:
+   - **Merchant ID**: 429855621381
+   - **Terminal ID**: 56654466
+   - **Date**: 13/06/2024
+   - **Time**: 13:22:45
+   - **Stay Card**: 09446469
+   - **Mastercard**: 0988897
+   - **Credit Card**: 0755
+   - **ATM**: 00000001
+   - **AID**: 000000001010
+   - **TWR**: 000000001010
+   - **ARC**: 6290FCDFC6830
+   - **Purchase**: $88.06
+2. **Details**:
+   - **Mastercard**: 0988897
+   - **Credit Card**: 0755
+   - **ATM**: 00000001
+   - **AID**: 000000001010
+   - **TWR**: 000000001010
+   - **ARC**: 6290FCDFC6830
+   - **Purchase**: $88.06
+### Analysis:
+1. **Common Merchant ID and Terminal ID**:
+   - Both receipts have the same merchant ID (429855621381) and terminal ID (56654466). This indicates that the transactions were processed at the same point of sale.
+2. **Transaction Details**:
+   - The transactions were made on the same date (13/06/2024) and time (13:22:45).
+   - The same payment method (Mastercard) and credit card details (0988897, 0755) were used for both transactions.
+   - The ATM, AID, TWR, and ARC details are identical, further confirming that these transactions are related.
+3. **Purchase Amount**:
+   - Both receipts show a purchase amount of $88.06. This suggests that the expenses are related to the same transaction.
+### Conclusion:
+Given the identical merchant ID, terminal ID, transaction details, and purchase amount, it is highly likely that these two receipts are related to a claim about car expenses. </t>
+  </si>
+  <si>
+    <t>152.1s</t>
+  </si>
+  <si>
+    <t>{
+  "company_name": "EG Fuelco (Australia) Limited",
+  "address": "91790 Belconnen PH 02 073 3987 4 Luton Street",
+  "phone_number": "02 6246 7500",
+  "date": "13/06/2024",
+  "ABN": "53 010 123 4567",
+  "total_amount": "88.06"
+}</t>
+  </si>
+  <si>
+    <t>20.5s</t>
+  </si>
+  <si>
+    <t>{
+  "company_name": "STOUT INDUSTRIES, INC.",
+  "address": "6425 W. FLORISSANT AVE., ST. LOUIS, MO 63136",
+  "phone_number": "314-385-2280",
+  "date": "October 16, 1987",
+  "item_name": "Harley Davidson Metal Plaque",
+  "number_of_items": 500,
+  "item_price": "$9.18 each",
+  "total_amount": "$4060"
+}</t>
+  </si>
+  <si>
+    <t>23.7s</t>
+  </si>
+  <si>
+    <t>Phi-3-vision (11G VRAM)</t>
+  </si>
+  <si>
+    <t>Yes, this invoice is related to car expenses, specifically for fuel.</t>
+  </si>
+  <si>
+    <t>1.5s</t>
+  </si>
+  <si>
+    <t>2.0s</t>
+  </si>
+  <si>
+    <t>Yes, this document lists the details of an academic conference, including the title, speakers, and topics.</t>
+  </si>
+  <si>
+    <t>3.9s</t>
+  </si>
+  <si>
+    <t>The speakers listed are 
+Dr. William J. Schull, 
+Dr. Sheldon Wolff, 
+Dr. Patricia Jacobs, 
+Dr. Ravmond White, 
+Dr. Michael A Bender, and 
+Dr. Brockhaven National Laboratory.</t>
+  </si>
+  <si>
+    <t>2.1s</t>
+  </si>
+  <si>
+    <t>Yes, this invoice is related to a car expense as it details the cost of a vehicle purchase and the associated taxes.</t>
+  </si>
+  <si>
+    <t>{
+  "company_name": "Costco Wholesale Australia",
+  "address": "39-41 Mustang Ave, Canberra Airport ACT 26009",
+  "phone_number": "(02) 6246 7500",
+  "date": "08-JUN-2024",
+  "ABN": "57 104 012 893",
+  "total_amount": "$58.88"
+}</t>
+  </si>
+  <si>
+    <t>8.8s</t>
+  </si>
+  <si>
+    <r>
+      <t>{
+"company_name": "Costco Wholesale Australia",
+"address": "39-41 Mustang Ave, Canberra Airport, Canberra 2609",
+ "phone_number": "(02) 6246 7500",
+"date": "08-JUN-2024",
+"ABN": "57 104 012 893",  
+"total_amount": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$56.88</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>20.1s</t>
+  </si>
+  <si>
+    <t>{
+  "company_name": "Costco Wholesale Australia",
+  "address": "39-41 Mustang Ave, Canberra Airport ACT 2609",
+  "phone_number": "(02) 6246 7500",
+  "date": "02/06/24 09:09",
+  "ABN": "6290DF8C4AE833D",
+  "total_amount": "$88.06"
+}
+{
+  "company_name": "Costco Wholesale Australia",
+  "address": "39-41 Mustang Ave, Canberra Airport ACT 2609",
+  "phone_number": "(02) 6246 7500",
+  "date": "02/06/24 09:09",
+  "ABN": "6290DF8C4AE833D",
+  "total_amount": "$88.06"
+}</t>
+  </si>
+  <si>
+    <t>I'm sorry, but I cannot provide details or speculate about the content of the image.</t>
+  </si>
+  <si>
+    <t>1.7s</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "company_name": "STOUT INDUSTRIES, INC.",
+  "address": "6425 W. FLORISSANT AVE., ST. LOUIS, MO. 63136",
+  "phone_number": "(314) 385-2280",
+  "date": "October 16, 1987",
+  "item_name": "Harley Davidson Metal Plaque",
+  "number_of_items": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+  "item_price": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$3,015.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "total_amount": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$1,045.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>10.5s</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1319,6 +1919,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1326,6 +1932,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1896,10 +2505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE05BB72-CDC6-4D6A-8768-04BF3409CA66}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1914,36 +2523,48 @@
     <col min="8" max="8" width="58" style="1" customWidth="1"/>
     <col min="10" max="10" width="64.81640625" customWidth="1"/>
     <col min="11" max="11" width="43.7265625" customWidth="1"/>
+    <col min="12" max="12" width="7" style="7" customWidth="1"/>
+    <col min="13" max="13" width="48" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="7"/>
+    <col min="15" max="15" width="55.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="9"/>
       <c r="K1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1965,9 +2586,21 @@
       <c r="I2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="319" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="319" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1996,11 +2629,23 @@
         <v>40</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2023,17 +2668,29 @@
         <v>35</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="261" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="261" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2062,11 +2719,23 @@
         <v>43</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -2086,7 +2755,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>44</v>
@@ -2095,120 +2764,168 @@
         <v>48</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="174" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="304.5" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="304.5" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>51</v>
@@ -2217,16 +2934,28 @@
         <v>50</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -2255,34 +2984,46 @@
         <v>49</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
@@ -2502,7 +3243,9 @@
       <c r="D53" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>

--- a/documents/throughput comparison.xlsx
+++ b/documents/throughput comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/949f3cfe1542cc21/文档/GitHub/Large-Multimodal-Model/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{2F680B0B-8442-48EC-B7C5-713DE4DA146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77296CFD-ECAF-4A4C-BFF4-FAF1E755B275}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{2F680B0B-8442-48EC-B7C5-713DE4DA146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36432444-2C1E-47F1-8D47-E18B40825C90}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{58EFA19F-308C-40EC-A9CD-3EA6AA82CD5F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="147">
   <si>
     <t>Question</t>
   </si>
@@ -1688,15 +1688,6 @@
     <t>3.9s</t>
   </si>
   <si>
-    <t>The speakers listed are 
-Dr. William J. Schull, 
-Dr. Sheldon Wolff, 
-Dr. Patricia Jacobs, 
-Dr. Ravmond White, 
-Dr. Michael A Bender, and 
-Dr. Brockhaven National Laboratory.</t>
-  </si>
-  <si>
     <t>2.1s</t>
   </si>
   <si>
@@ -1850,6 +1841,396 @@
   </si>
   <si>
     <t>10.5s</t>
+  </si>
+  <si>
+    <t>Phi-3.5-vision (9.3G VRAM)</t>
+  </si>
+  <si>
+    <t>10.8s</t>
+  </si>
+  <si>
+    <t>Yes, the document is related to car expenses as it details a car purchase and sale transaction.</t>
+  </si>
+  <si>
+    <t>1.4s</t>
+  </si>
+  <si>
+    <t>6.6s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "companyName": "Costco Wholesale Australia",
+    "address": "23-41 Hastings Ave, Canning Vale, WA 6022, Australia",
+    "phone": "(61) 2 9246 7888",
+    "date": "05/05/2019",
+    "ABN": "13 746 612 863",
+    "totalAmount": "880.00"
+  },
+  {
+    "companyName": "EES Pools (Qld) Pty Ltd",
+    "address": "11-135A, 115-121A, 115-123A,</t>
+  </si>
+  <si>
+    <t>1.6s</t>
+  </si>
+  <si>
+    <t>No, the image is a receipt from Costco Wholesale Australia and does not pertain to car expenses.</t>
+  </si>
+  <si>
+    <t>3.2s</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The speakers listed are: 
+Dr. William J. Schulll, 
+Dr. Jorge J. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vuille</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 
+Dr. Sheldon Wolff, 
+Dr. Patricia Jacobs, 
+Dr. Raymond White, and 
+Dr. Michael A. Bender.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The speakers listed are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(miss one)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dr. William J. Schull, 
+Dr. Sheldon Wolff, 
+Dr. Patricia Jacobs, 
+Dr. Ravmond White, 
+Dr. Michael A Bender, and 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dr. Brockhaven National Laboratory.</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes, the form is related to an academic conference, specifically the Annual Meeting of the American Association for Asexual Research (AAAR) in Los Angeles.</t>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "Company Name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">",
+  "Address": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"1500 Walnut St, Suite 100, Kansas City, MO 64108</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "Phone Number": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>314-782-5478</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "Date": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03/29/2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "ABN": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000132</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "Total Amount": "$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "CompanyName": "Cosoro Wholesale Australia",
+  "Address": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Canberra Airport ACT 2600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "PhoneNumber": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(02) 6240 7508</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "Date": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>08-02-2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "ABN": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>133343 041 837</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">7",
+  "TotalAmount": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"85.38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "company_name": "Stout Industries, Inc.",
+  "address": "6425 W Florissant Ave, St Louis, MO 63136",
+  "phone_number": "341 385-2980",
+  "date": "October 16, 1987",
+  "item_name": "Harley Davidson Metal Plaque",
+  "number_of_items": 500,
+  "item_price": "$9.18",
+  "total_amount": "$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4680</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1898,7 +2279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1924,17 +2305,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2066,7 +2450,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1974850</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>128237</xdr:rowOff>
+      <xdr:rowOff>128238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2505,10 +2889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE05BB72-CDC6-4D6A-8768-04BF3409CA66}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2525,46 +2909,52 @@
     <col min="11" max="11" width="43.7265625" customWidth="1"/>
     <col min="12" max="12" width="7" style="7" customWidth="1"/>
     <col min="13" max="13" width="48" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="7"/>
-    <col min="15" max="15" width="55.36328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="48" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" style="7"/>
+    <col min="17" max="17" width="55.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="11"/>
       <c r="K1" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="9"/>
+      <c r="M1" s="11"/>
       <c r="N1" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="11"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2595,12 +2985,18 @@
       <c r="N2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="319" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
+      <c r="P2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="319" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2637,15 +3033,21 @@
       <c r="M3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2680,17 +3082,23 @@
         <v>120</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="261" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:17" ht="261" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2727,15 +3135,21 @@
       <c r="M5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -2772,14 +3186,20 @@
       <c r="M6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2811,19 +3231,25 @@
         <v>85</v>
       </c>
       <c r="L7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="174" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2843,7 +3269,7 @@
         <v>55</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>77</v>
@@ -2855,19 +3281,25 @@
         <v>86</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
@@ -2899,19 +3331,21 @@
         <v>87</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="319" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
@@ -2943,19 +3377,25 @@
         <v>88</v>
       </c>
       <c r="L10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="13">
+        <v>27.5</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="Q10" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -2987,43 +3427,49 @@
         <v>91</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
@@ -3243,8 +3689,8 @@
       <c r="D53" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="N1:O1"/>
+  <mergeCells count="11">
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A1:A2"/>
@@ -3254,8 +3700,10 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>